--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.540649402094389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8229248556182727</v>
+        <v>0.8229248556182754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09690114078247743</v>
@@ -649,7 +649,7 @@
         <v>0.6524453684222722</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1356557556191846</v>
+        <v>0.1356557556191851</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.275561839659527</v>
+        <v>-1.24804534165038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.980006717953813</v>
+        <v>3.14931102063586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06774389741452098</v>
+        <v>0.2090057762359445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.549788067056572</v>
+        <v>-1.642222092973907</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5529828330186627</v>
+        <v>-0.5055506024605763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4351377085079454</v>
+        <v>0.4969541393916772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.00127594470328063</v>
+        <v>0.01979834095619388</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1998561205553127</v>
+        <v>-0.2129014200724663</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.5583539428184</v>
+        <v>1.637292863422159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.957101287677093</v>
+        <v>8.919635954675272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.180251182720062</v>
+        <v>5.277002350118292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.064689447557011</v>
+        <v>2.99035535785732</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.288657194789413</v>
+        <v>1.416267181322762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.353202749747986</v>
+        <v>2.406829126844158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.758184597351035</v>
+        <v>1.921654693954558</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.668132654434515</v>
+        <v>0.644986710689716</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.476253722213918</v>
+        <v>-1.567574490949518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.893661380982147</v>
+        <v>0.9867506503342403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.00028065865697451</v>
+        <v>0.1136939370911391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.749507359205795</v>
+        <v>1.714963007413922</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3013509346974013</v>
+        <v>-0.3206956227122784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.121805169928893</v>
+        <v>0.1627473133830726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02771042474358942</v>
+        <v>0.005399136632623299</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3612594680559458</v>
+        <v>0.3517212366293047</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.345776370999089</v>
+        <v>2.243439112541851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.53502219251817</v>
+        <v>5.268421592770178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.46354512681358</v>
+        <v>3.530168684571935</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.068468134932417</v>
+        <v>5.164447952216323</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7224240868998067</v>
+        <v>0.7442254397272855</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.407166015955432</v>
+        <v>1.342782270408602</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.607684255742345</v>
+        <v>1.809209852056348</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.775078399106601</v>
+        <v>1.768026626391066</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.469259811676565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9765579124797314</v>
+        <v>0.9765579124797336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6230194760952027</v>
@@ -849,7 +849,7 @@
         <v>0.4058151525105386</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1664721027954601</v>
+        <v>0.1664721027954604</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2311467718032822</v>
+        <v>-0.3191048328414192</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.094537249972997</v>
+        <v>2.219909784053516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8873859140720921</v>
+        <v>-0.7556311533841538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.222030879764147</v>
+        <v>-1.222741051835684</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.067742649476058</v>
+        <v>-0.1088267923540017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3794333741495421</v>
+        <v>0.380407464253912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2224444953529006</v>
+        <v>-0.1922843986104603</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1728344020910393</v>
+        <v>-0.173948339550284</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.183524892010055</v>
+        <v>4.383444318000544</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.512770604415326</v>
+        <v>7.296721518737419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.553307370025632</v>
+        <v>3.50823536764605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.362589812131382</v>
+        <v>3.592858989124834</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.788778793207925</v>
+        <v>1.811000709191695</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.392345015031748</v>
+        <v>2.45069574356173</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.355059630898446</v>
+        <v>1.307456811477605</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7662922015177475</v>
+        <v>0.7876488544521185</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.455321557619276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.802609346607735</v>
+        <v>2.802609346607736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.130406925400228</v>
@@ -949,7 +949,7 @@
         <v>0.6305324773572852</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4880256682805688</v>
+        <v>0.488025668280569</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.894091011487788</v>
+        <v>1.804994361091418</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.541556673104137</v>
+        <v>2.916101413996928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4764359609514414</v>
+        <v>0.4284218256560298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8685285063777968</v>
+        <v>0.7252745430691143</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4394835981527652</v>
+        <v>0.4138489499646897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3647441485128602</v>
+        <v>0.499274305522696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09587102283021526</v>
+        <v>0.07451415089452078</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1277341216500552</v>
+        <v>0.0966090385775441</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.616472352239184</v>
+        <v>5.617738214760146</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.392637687041425</v>
+        <v>7.540881075763593</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.517441713934042</v>
+        <v>4.595694199284813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.790767368508248</v>
+        <v>4.664864745571527</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.410794146425446</v>
+        <v>2.344503297279974</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.932676729752378</v>
+        <v>2.04107786682016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.486487138281888</v>
+        <v>1.493126414098132</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.012411743760691</v>
+        <v>1.000032910554406</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.063451115628804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.229797271044722</v>
+        <v>2.229797271044719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5220050298301105</v>
@@ -1049,7 +1049,7 @@
         <v>0.5955102515546855</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4266244865859347</v>
+        <v>0.426624486585934</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7663677792226211</v>
+        <v>0.7826818611076947</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.456448160847164</v>
+        <v>3.446093896806405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.043781817146162</v>
+        <v>0.9306149804723882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.240152462128127</v>
+        <v>1.167884929247262</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2106028672074863</v>
+        <v>0.2066598898305871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6447114556405001</v>
+        <v>0.6570231146747461</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2598441225127502</v>
+        <v>0.23358147862419</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2087999992652616</v>
+        <v>0.201132379901188</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.732348887142151</v>
+        <v>2.690182069937379</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.941531458576598</v>
+        <v>5.974859623409996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.161696657731896</v>
+        <v>3.051619240141233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.261897536189963</v>
+        <v>3.202901845220921</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9715515318481817</v>
+        <v>0.9634496529898391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.483663272343014</v>
+        <v>1.474916295449766</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.068676784959778</v>
+        <v>1.012239108022479</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7007086458976868</v>
+        <v>0.6891754813565468</v>
       </c>
     </row>
     <row r="19">
